--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Snehal Patil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="3"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,12 @@
     <sheet name="Case Payments" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>Type of Case
 (Defendant / Plaintiff)</t>
@@ -209,9 +205,6 @@
   </si>
   <si>
     <t>Payment Date    (dd-MMM-yyyy)</t>
-  </si>
-  <si>
-    <t>Miscellaneous</t>
   </si>
   <si>
     <t>Order Date               (dd-MMM-yyyy)</t>
@@ -255,50 +248,58 @@
     <t xml:space="preserve"> 17-Jun-2023</t>
   </si>
   <si>
-    <t>MrSawant,</t>
-  </si>
-  <si>
     <t>2nd  Magistrate Court,Alipore</t>
   </si>
   <si>
-    <t>A pvt ltd</t>
+    <t>High</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>25-03-2023</t>
+  </si>
+  <si>
+    <t>2023-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12-apr-2023</t>
+  </si>
+  <si>
+    <t>Hearingof 26-Feb-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">		</t>
+  </si>
+  <si>
+    <t>12-feb-2023</t>
+  </si>
+  <si>
+    <t>Order date 28042023</t>
+  </si>
+  <si>
+    <t>18-feb-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Deepali Dev</t>
+  </si>
+  <si>
+    <t>Karnataka Pvt Ltdd</t>
   </si>
   <si>
     <t xml:space="preserve">	
-performer@avantis.info</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>25-03-2023</t>
-  </si>
-  <si>
-    <t>2023-2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12-apr-2023</t>
-  </si>
-  <si>
-    <t>Hearingof 26-Feb-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		</t>
-  </si>
-  <si>
-    <t>12-feb-2023</t>
-  </si>
-  <si>
-    <t>Order date 28JUN2023</t>
-  </si>
-  <si>
-    <t>Order date 28042023</t>
-  </si>
-  <si>
-    <t>18-feb-2023</t>
+ayush.tripathi@tlregtech.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+ayush.tripathi@tlregtech.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Checks</t>
+  </si>
+  <si>
+    <t>Order date 20July2023</t>
   </si>
 </sst>
 </file>
@@ -963,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1055,7 +1056,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>15</v>
@@ -1100,10 +1101,10 @@
         <v>28</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>29</v>
@@ -1112,7 +1113,7 @@
         <v>30</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK1" s="6" t="s">
         <v>31</v>
@@ -1124,42 +1125,42 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>634684</v>
+        <v>453452</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="33" t="s">
         <v>69</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>70</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>71</v>
+      <c r="I2" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L2" s="33"/>
       <c r="M2" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O2" s="33"/>
       <c r="P2" s="33" t="s">
@@ -1167,10 +1168,10 @@
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="34" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="T2" s="33"/>
       <c r="U2" s="33"/>
@@ -1184,10 +1185,10 @@
       <c r="AC2" s="33"/>
       <c r="AD2" s="33"/>
       <c r="AE2" s="33" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AF2" s="34" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AG2" s="33"/>
       <c r="AH2" s="33" t="s">
@@ -1197,7 +1198,7 @@
         <v>37</v>
       </c>
       <c r="AJ2" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AK2" s="33" t="s">
         <v>38</v>
@@ -1206,7 +1207,7 @@
         <v>4000</v>
       </c>
       <c r="AM2" s="33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1241,13 +1242,13 @@
         <v>49</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="19" t="s">
         <v>51</v>
@@ -1264,10 +1265,10 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>634684</v>
+        <v>453452</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" s="38">
         <v>142435</v>
@@ -1275,10 +1276,10 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="36" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G2" s="39" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H2" s="24"/>
     </row>
@@ -1300,7 +1301,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,7 +1323,7 @@
         <v>42</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>43</v>
@@ -1336,19 +1337,19 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>634684</v>
+        <v>453452</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F2" s="41"/>
     </row>
@@ -1362,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,17 +1411,17 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>634684</v>
+        <v>453452</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">
         <v>45654</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F2" s="42">
         <v>457657</v>

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Case Payments" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -275,9 +274,6 @@
     <t>12-feb-2023</t>
   </si>
   <si>
-    <t>Order date 28042023</t>
-  </si>
-  <si>
     <t>18-feb-2023</t>
   </si>
   <si>
@@ -299,7 +295,10 @@
     <t xml:space="preserve"> Checks</t>
   </si>
   <si>
-    <t>Order date 20July2023</t>
+    <t>Order date 28July2023</t>
+  </si>
+  <si>
+    <t>Order date 28092023</t>
   </si>
 </sst>
 </file>
@@ -964,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1132,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>453452</v>
+        <v>672523</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1149,7 +1148,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33" t="s">
@@ -1160,7 +1159,7 @@
         <v>67</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O2" s="33"/>
       <c r="P2" s="33" t="s">
@@ -1168,7 +1167,7 @@
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>71</v>
@@ -1188,7 +1187,7 @@
         <v>72</v>
       </c>
       <c r="AF2" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG2" s="33"/>
       <c r="AH2" s="33" t="s">
@@ -1237,7 +1236,7 @@
     <col min="9" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
@@ -1265,7 +1264,7 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>453452</v>
+        <v>672523</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>75</v>
@@ -1337,7 +1336,7 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>453452</v>
+        <v>672523</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
@@ -1346,10 +1345,10 @@
         <v>78</v>
       </c>
       <c r="D2" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>86</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>79</v>
       </c>
       <c r="F2" s="41"/>
     </row>
@@ -1363,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,13 +1414,13 @@
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">
-        <v>45654</v>
+        <v>672523</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="42">
         <v>457657</v>

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -963,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1132,7 +1132,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>672523</v>
+        <v>453423250</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1264,7 +1264,7 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>672523</v>
+        <v>453423250</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>75</v>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>672523</v>
+        <v>453423250</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>453452</v>
+        <v>453423250</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t>Type of Case
 (Defendant / Plaintiff)</t>
@@ -295,10 +295,7 @@
     <t xml:space="preserve"> Checks</t>
   </si>
   <si>
-    <t>Order date 28July2023</t>
-  </si>
-  <si>
-    <t>Order date 28092023</t>
+    <t>Order date 13aug23</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1129,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>453423250</v>
+        <v>452304109</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1264,7 +1261,7 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>453423250</v>
+        <v>452304109</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>75</v>
@@ -1336,7 +1333,7 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>453423250</v>
+        <v>452304109</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
@@ -1348,7 +1345,7 @@
         <v>85</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F2" s="41"/>
     </row>
@@ -1410,7 +1407,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>453423250</v>
+        <v>452304109</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -247,9 +247,6 @@
     <t xml:space="preserve"> 17-Jun-2023</t>
   </si>
   <si>
-    <t>2nd  Magistrate Court,Alipore</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -281,21 +278,24 @@
 Deepali Dev</t>
   </si>
   <si>
-    <t>Karnataka Pvt Ltdd</t>
+    <t xml:space="preserve"> Checks</t>
   </si>
   <si>
     <t xml:space="preserve">	
-ayush.tripathi@tlregtech.in</t>
+companyadmin@avantis.info</t>
   </si>
   <si>
     <t xml:space="preserve">	
-ayush.tripathi@tlregtech.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Checks</t>
-  </si>
-  <si>
-    <t>Order date 13aug23</t>
+companyadmin@avantis.info</t>
+  </si>
+  <si>
+    <t>ABC Mall, Thane</t>
+  </si>
+  <si>
+    <t>District Court, Pune</t>
+  </si>
+  <si>
+    <t>Order date 31aug23</t>
   </si>
 </sst>
 </file>
@@ -960,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>452304109</v>
+        <v>682648284</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1145,18 +1145,18 @@
         <v>35</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="L2" s="33"/>
       <c r="M2" s="33" t="s">
         <v>67</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O2" s="33"/>
       <c r="P2" s="33" t="s">
@@ -1167,7 +1167,7 @@
         <v>82</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T2" s="33"/>
       <c r="U2" s="33"/>
@@ -1181,10 +1181,10 @@
       <c r="AC2" s="33"/>
       <c r="AD2" s="33"/>
       <c r="AE2" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AF2" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AG2" s="33"/>
       <c r="AH2" s="33" t="s">
@@ -1194,7 +1194,7 @@
         <v>37</v>
       </c>
       <c r="AJ2" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AK2" s="33" t="s">
         <v>38</v>
@@ -1203,7 +1203,7 @@
         <v>4000</v>
       </c>
       <c r="AM2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1261,10 +1261,10 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>452304109</v>
+        <v>682648284</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="38">
         <v>142435</v>
@@ -1272,10 +1272,10 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>76</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>77</v>
       </c>
       <c r="H2" s="24"/>
     </row>
@@ -1333,13 +1333,13 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>452304109</v>
+        <v>682648284</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>85</v>
@@ -1407,17 +1407,17 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>452304109</v>
+        <v>682648284</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">
         <v>672523</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="42">
         <v>457657</v>

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>Type of Case
 (Defendant / Plaintiff)</t>
@@ -295,7 +295,10 @@
     <t>District Court, Pune</t>
   </si>
   <si>
-    <t>Order date 31aug23</t>
+    <t>Order date 6aug23</t>
+  </si>
+  <si>
+    <t>Order date 9aug23</t>
   </si>
 </sst>
 </file>
@@ -960,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1132,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>682648284</v>
+        <v>23456123</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1217,7 +1220,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1264,7 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>682648284</v>
+        <v>23456123</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>74</v>
@@ -1297,7 +1300,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1336,7 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>682648284</v>
+        <v>23456123</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
@@ -1342,7 +1345,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>85</v>
@@ -1407,7 +1410,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>682648284</v>
+        <v>23456123</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
     <t>Order date 6aug23</t>
   </si>
   <si>
-    <t>Order date 9aug23</t>
+    <t>Order date 11aug23</t>
   </si>
 </sst>
 </file>
@@ -963,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1132,7 +1132,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>23456123</v>
+        <v>2334558</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>23456123</v>
+        <v>2334558</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>74</v>
@@ -1299,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>23456123</v>
+        <v>2334558</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">
-        <v>672523</v>
+        <v>2334558</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>80</v>

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
     <t>Order date 6aug23</t>
   </si>
   <si>
-    <t>Order date 11aug23</t>
+    <t>Order date 13aug023</t>
   </si>
 </sst>
 </file>
@@ -963,7 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1132,7 +1132,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>2334558</v>
+        <v>5432341</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1264,7 +1264,7 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>2334558</v>
+        <v>5432341</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>74</v>
@@ -1299,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>2334558</v>
+        <v>5432341</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>23456123</v>
+        <v>5432341</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -295,10 +295,10 @@
     <t>District Court, Pune</t>
   </si>
   <si>
-    <t>Order date 6aug23</t>
-  </si>
-  <si>
-    <t>Order date 13aug023</t>
+    <t>Order date 17aug023</t>
+  </si>
+  <si>
+    <t>Order date 17aug23</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1132,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>5432341</v>
+        <v>785685745</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1264,7 +1264,7 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>5432341</v>
+        <v>785685745</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>74</v>
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" activeCellId="1" sqref="A2 A2:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>5432341</v>
+        <v>785685745</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
@@ -1345,10 +1345,10 @@
         <v>77</v>
       </c>
       <c r="D2" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>86</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>85</v>
       </c>
       <c r="F2" s="41"/>
     </row>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>5432341</v>
+        <v>785685745</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -281,24 +281,24 @@
     <t xml:space="preserve"> Checks</t>
   </si>
   <si>
+    <t>District Court, Pune</t>
+  </si>
+  <si>
+    <t>Order date 20aug23</t>
+  </si>
+  <si>
+    <t>Order date 20aug023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABC Mall, Thane</t>
+  </si>
+  <si>
     <t xml:space="preserve">	
 companyadmin@avantis.info</t>
   </si>
   <si>
     <t xml:space="preserve">	
 companyadmin@avantis.info</t>
-  </si>
-  <si>
-    <t>ABC Mall, Thane</t>
-  </si>
-  <si>
-    <t>District Court, Pune</t>
-  </si>
-  <si>
-    <t>Order date 17aug023</t>
-  </si>
-  <si>
-    <t>Order date 17aug23</t>
   </si>
 </sst>
 </file>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +985,7 @@
     <col min="14" max="14" width="21.85546875" customWidth="1"/>
     <col min="15" max="16" width="17.85546875" customWidth="1"/>
     <col min="17" max="17" width="25.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="18" max="18" width="30.140625" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" customWidth="1"/>
     <col min="20" max="25" width="14.42578125" customWidth="1"/>
     <col min="26" max="26" width="20.28515625" customWidth="1"/>
@@ -1124,7 +1124,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>785685745</v>
+        <v>342346</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1152,14 +1152,14 @@
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L2" s="33"/>
       <c r="M2" s="33" t="s">
         <v>67</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O2" s="33"/>
       <c r="P2" s="33" t="s">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>70</v>
@@ -1187,7 +1187,7 @@
         <v>71</v>
       </c>
       <c r="AF2" s="34" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AG2" s="33"/>
       <c r="AH2" s="33" t="s">
@@ -1264,7 +1264,7 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>785685745</v>
+        <v>342346</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>74</v>
@@ -1300,7 +1300,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" activeCellId="1" sqref="A2 A2:XFD11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1336,7 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>785685745</v>
+        <v>342346</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
@@ -1345,10 +1345,10 @@
         <v>77</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F2" s="41"/>
     </row>
@@ -1362,7 +1362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>785685745</v>
+        <v>342346</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>Type of Case
 (Defendant / Plaintiff)</t>
@@ -290,15 +290,30 @@
     <t>Order date 20aug023</t>
   </si>
   <si>
-    <t xml:space="preserve"> ABC Mall, Thane</t>
+    <t xml:space="preserve"> 
+Deepali Dev</t>
+  </si>
+  <si>
+    <t>ABC Mall, Thane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Others #Delhi Value Added Tax Act, 2004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ajinkya.patil@avantis.info</t>
   </si>
   <si>
     <t xml:space="preserve">	
-companyadmin@avantis.info</t>
+ajinkya.patil@avantis.info</t>
   </si>
   <si>
     <t xml:space="preserve">	
-companyadmin@avantis.info</t>
+ ajinkya.patil@avantis.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+ajinkya.patil@avantis.info</t>
   </si>
 </sst>
 </file>
@@ -961,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF14" sqref="AF14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +989,7 @@
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="20.140625" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.5703125" customWidth="1"/>
     <col min="9" max="9" width="26.85546875" customWidth="1"/>
@@ -994,7 +1009,7 @@
     <col min="29" max="29" width="15" customWidth="1"/>
     <col min="30" max="30" width="14.42578125" customWidth="1"/>
     <col min="31" max="31" width="19.85546875" customWidth="1"/>
-    <col min="32" max="32" width="25.85546875" customWidth="1"/>
+    <col min="32" max="32" width="32.7109375" customWidth="1"/>
     <col min="33" max="33" width="23" customWidth="1"/>
     <col min="34" max="34" width="15.5703125" customWidth="1"/>
     <col min="35" max="35" width="13.140625" customWidth="1"/>
@@ -1124,7 +1139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1132,7 +1147,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>342346</v>
+        <v>341527</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1159,7 +1174,7 @@
         <v>67</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O2" s="33"/>
       <c r="P2" s="33" t="s">
@@ -1167,7 +1182,7 @@
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>70</v>
@@ -1187,7 +1202,7 @@
         <v>71</v>
       </c>
       <c r="AF2" s="34" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AG2" s="33"/>
       <c r="AH2" s="33" t="s">
@@ -1206,6 +1221,91 @@
         <v>4000</v>
       </c>
       <c r="AM2" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="33">
+        <v>23421</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF3" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG3" s="33"/>
+      <c r="AH3" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI3" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ3" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK3" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL3" s="33">
+        <v>4000</v>
+      </c>
+      <c r="AM3" s="33" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1362,7 +1462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -274,46 +274,47 @@
     <t>18-feb-2023</t>
   </si>
   <si>
+    <t xml:space="preserve"> Checks</t>
+  </si>
+  <si>
+    <t>District Court, Pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Others #Delhi Value Added Tax Act, 2004 </t>
+  </si>
+  <si>
+    <t>Order date 26aug23</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
-Deepali Dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Checks</t>
-  </si>
-  <si>
-    <t>District Court, Pune</t>
-  </si>
-  <si>
-    <t>Order date 20aug23</t>
-  </si>
-  <si>
-    <t>Order date 20aug023</t>
+companyadmin@avantis.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+companyadmin@avantis.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+companyadmin@avantis.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+companyadmin@avantis.info</t>
+  </si>
+  <si>
+    <t>Order date 25aug2023</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-Deepali Dev</t>
-  </si>
-  <si>
-    <t>ABC Mall, Thane</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Others #Delhi Value Added Tax Act, 2004 </t>
+MrSanju Kumar,</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-ajinkya.patil@avantis.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-ajinkya.patil@avantis.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
- ajinkya.patil@avantis.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-ajinkya.patil@avantis.info</t>
+MrSanju Kumar,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC Mall, Thane
+</t>
   </si>
 </sst>
 </file>
@@ -978,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>341527</v>
+        <v>45342</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1163,18 +1164,18 @@
         <v>35</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L2" s="33"/>
       <c r="M2" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="33" t="s">
-        <v>85</v>
+      <c r="N2" s="34" t="s">
+        <v>90</v>
       </c>
       <c r="O2" s="33"/>
       <c r="P2" s="33" t="s">
@@ -1182,7 +1183,7 @@
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="34" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>70</v>
@@ -1202,7 +1203,7 @@
         <v>71</v>
       </c>
       <c r="AF2" s="34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AG2" s="33"/>
       <c r="AH2" s="33" t="s">
@@ -1224,7 +1225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -1232,14 +1233,14 @@
         <v>66</v>
       </c>
       <c r="C3" s="33">
-        <v>23421</v>
+        <v>267461</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>69</v>
@@ -1248,18 +1249,18 @@
         <v>35</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="33" t="s">
-        <v>85</v>
+      <c r="N3" s="34" t="s">
+        <v>90</v>
       </c>
       <c r="O3" s="33"/>
       <c r="P3" s="33" t="s">
@@ -1267,7 +1268,7 @@
       </c>
       <c r="Q3" s="33"/>
       <c r="R3" s="34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S3" s="33" t="s">
         <v>70</v>
@@ -1287,7 +1288,7 @@
         <v>71</v>
       </c>
       <c r="AF3" s="34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AG3" s="33"/>
       <c r="AH3" s="33" t="s">
@@ -1364,7 +1365,7 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>342346</v>
+        <v>45342</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>74</v>
@@ -1436,7 +1437,7 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>342346</v>
+        <v>45342</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
@@ -1445,7 +1446,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>82</v>
@@ -1510,14 +1511,14 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>342346</v>
+        <v>45342</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">
-        <v>2334558</v>
+        <v>64672</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>78</v>

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -287,6 +287,17 @@
   </si>
   <si>
     <t xml:space="preserve"> 
+Deepali Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Deepali Dev</t>
+  </si>
+  <si>
+    <t>ABC Mall, Thane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
 companyadmin@avantis.info</t>
   </si>
   <si>
@@ -295,26 +306,14 @@
   </si>
   <si>
     <t xml:space="preserve">	
-companyadmin@avantis.info</t>
+ companyadmin@avantis.info</t>
   </si>
   <si>
     <t xml:space="preserve">	
 companyadmin@avantis.info</t>
   </si>
   <si>
-    <t>Order date 25aug2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-MrSanju Kumar,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-MrSanju Kumar,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABC Mall, Thane
-</t>
+    <t>Order date 05JAN2024</t>
   </si>
 </sst>
 </file>
@@ -979,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1147,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>45342</v>
+        <v>5012024</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1164,7 +1163,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33" t="s">
@@ -1175,7 +1174,7 @@
         <v>67</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O2" s="33"/>
       <c r="P2" s="33" t="s">
@@ -1183,7 +1182,7 @@
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="34" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>70</v>
@@ -1203,7 +1202,7 @@
         <v>71</v>
       </c>
       <c r="AF2" s="34" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="AG2" s="33"/>
       <c r="AH2" s="33" t="s">
@@ -1225,7 +1224,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1232,7 @@
         <v>66</v>
       </c>
       <c r="C3" s="33">
-        <v>267461</v>
+        <v>212242</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33" t="s">
@@ -1249,7 +1248,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="33" t="s">
@@ -1260,7 +1259,7 @@
         <v>67</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="O3" s="33"/>
       <c r="P3" s="33" t="s">
@@ -1268,7 +1267,7 @@
       </c>
       <c r="Q3" s="33"/>
       <c r="R3" s="34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S3" s="33" t="s">
         <v>70</v>
@@ -1288,7 +1287,7 @@
         <v>71</v>
       </c>
       <c r="AF3" s="34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AG3" s="33"/>
       <c r="AH3" s="33" t="s">
@@ -1365,7 +1364,7 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>45342</v>
+        <v>5012024</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>74</v>
@@ -1400,7 +1399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1437,7 +1436,7 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>45342</v>
+        <v>5012024</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
@@ -1446,7 +1445,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>82</v>
@@ -1511,7 +1510,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>45342</v>
+        <v>5012024</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -259,9 +259,6 @@
     <t>2023-2024</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12-apr-2023</t>
-  </si>
-  <si>
     <t>Hearingof 26-Feb-2023</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
   </si>
   <si>
     <t>18-feb-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Checks</t>
   </si>
   <si>
     <t>District Court, Pune</t>
@@ -313,7 +307,13 @@
 companyadmin@avantis.info</t>
   </si>
   <si>
-    <t>Order date 05JAN2024</t>
+    <t xml:space="preserve">  Debit card</t>
+  </si>
+  <si>
+    <t>Order date 25JAN2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12-apr-2024</t>
   </si>
 </sst>
 </file>
@@ -978,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1147,7 +1147,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>5012024</v>
+        <v>94576</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1163,18 +1163,18 @@
         <v>35</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L2" s="33"/>
       <c r="M2" s="33" t="s">
         <v>67</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O2" s="33"/>
       <c r="P2" s="33" t="s">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>70</v>
@@ -1202,7 +1202,7 @@
         <v>71</v>
       </c>
       <c r="AF2" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG2" s="33"/>
       <c r="AH2" s="33" t="s">
@@ -1232,14 +1232,14 @@
         <v>66</v>
       </c>
       <c r="C3" s="33">
-        <v>212242</v>
+        <v>21024242</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>69</v>
@@ -1248,18 +1248,18 @@
         <v>35</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O3" s="33"/>
       <c r="P3" s="33" t="s">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="Q3" s="33"/>
       <c r="R3" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S3" s="33" t="s">
         <v>70</v>
@@ -1287,7 +1287,7 @@
         <v>71</v>
       </c>
       <c r="AF3" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG3" s="33"/>
       <c r="AH3" s="33" t="s">
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1330,7 @@
     <col min="3" max="3" width="17.5703125" style="11" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="35.85546875" customWidth="1"/>
     <col min="9" max="1025" width="8.5703125" customWidth="1"/>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>5012024</v>
+        <v>94576</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C2" s="38">
         <v>142435</v>
@@ -1375,10 +1375,10 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>75</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>76</v>
       </c>
       <c r="H2" s="24"/>
     </row>
@@ -1399,7 +1399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1436,19 +1436,19 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>5012024</v>
+        <v>94576</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F2" s="41"/>
     </row>
@@ -1510,17 +1510,17 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>5012024</v>
+        <v>94576</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">
-        <v>64672</v>
+        <v>102932</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="42">
         <v>457657</v>

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -271,9 +271,6 @@
     <t>18-feb-2023</t>
   </si>
   <si>
-    <t>District Court, Pune</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Others #Delhi Value Added Tax Act, 2004 </t>
   </si>
   <si>
@@ -288,32 +285,35 @@
 Deepali Dev</t>
   </si>
   <si>
-    <t>ABC Mall, Thane</t>
+    <t xml:space="preserve">  Debit card</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12-apr-2024</t>
+  </si>
+  <si>
+    <t>Order date 19JAN2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABC Mall, Thane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOMBAY HIGH COURT.</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-companyadmin@avantis.info</t>
+ kantak.bhagyesh@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+ kantak.bhagyesh@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">	
-companyadmin@avantis.info</t>
+ kantak.bhagyesh@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">	
- companyadmin@avantis.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-companyadmin@avantis.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Debit card</t>
-  </si>
-  <si>
-    <t>Order date 25JAN2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12-apr-2024</t>
+ kantak.bhagyesh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>94576</v>
+        <v>837583</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1163,18 +1163,18 @@
         <v>35</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L2" s="33"/>
       <c r="M2" s="33" t="s">
         <v>67</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O2" s="33"/>
       <c r="P2" s="33" t="s">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>70</v>
@@ -1202,7 +1202,7 @@
         <v>71</v>
       </c>
       <c r="AF2" s="34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG2" s="33"/>
       <c r="AH2" s="33" t="s">
@@ -1232,14 +1232,14 @@
         <v>66</v>
       </c>
       <c r="C3" s="33">
-        <v>21024242</v>
+        <v>1117182</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>69</v>
@@ -1248,18 +1248,18 @@
         <v>35</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="33" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O3" s="33"/>
       <c r="P3" s="33" t="s">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="Q3" s="33"/>
       <c r="R3" s="34" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S3" s="33" t="s">
         <v>70</v>
@@ -1287,7 +1287,7 @@
         <v>71</v>
       </c>
       <c r="AF3" s="34" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="AG3" s="33"/>
       <c r="AH3" s="33" t="s">
@@ -1320,7 +1320,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>94576</v>
+        <v>837583</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C2" s="38">
         <v>142435</v>
@@ -1400,7 +1400,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>94576</v>
+        <v>837583</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
@@ -1445,10 +1445,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2" s="41"/>
     </row>
@@ -1510,14 +1510,14 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>94576</v>
+        <v>837583</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">
-        <v>102932</v>
+        <v>7850076</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>77</v>

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -274,46 +274,46 @@
     <t xml:space="preserve"> Others #Delhi Value Added Tax Act, 2004 </t>
   </si>
   <si>
-    <t>Order date 26aug23</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 
 Deepali Dev</t>
   </si>
   <si>
+    <t xml:space="preserve">  Debit card</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12-apr-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BOMBAY HIGH COURT.</t>
+  </si>
+  <si>
+    <t>Order date 23aug23</t>
+  </si>
+  <si>
+    <t>ABC Mall, Thane</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
-Deepali Dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Debit card</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12-apr-2024</t>
-  </si>
-  <si>
-    <t>Order date 19JAN2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ABC Mall, Thane</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BOMBAY HIGH COURT.</t>
+companyadmin@avantis.info</t>
   </si>
   <si>
     <t xml:space="preserve"> 
- kantak.bhagyesh@gmail.com</t>
+companyadmin@avantis.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+companyadmin@avantis.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+companyadmin@avantis.info</t>
   </si>
   <si>
     <t xml:space="preserve"> 
- kantak.bhagyesh@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
- kantak.bhagyesh@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
- kantak.bhagyesh@gmail.com</t>
+ Avirat Gaikwad</t>
+  </si>
+  <si>
+    <t>Order date 18feb2024</t>
   </si>
 </sst>
 </file>
@@ -976,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>837583</v>
+        <v>940116</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1163,18 +1163,18 @@
         <v>35</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L2" s="33"/>
       <c r="M2" s="33" t="s">
         <v>67</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O2" s="33"/>
       <c r="P2" s="33" t="s">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>70</v>
@@ -1202,7 +1202,7 @@
         <v>71</v>
       </c>
       <c r="AF2" s="34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG2" s="33"/>
       <c r="AH2" s="33" t="s">
@@ -1232,7 +1232,7 @@
         <v>66</v>
       </c>
       <c r="C3" s="33">
-        <v>1117182</v>
+        <v>1815724</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33" t="s">
@@ -1248,18 +1248,18 @@
         <v>35</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O3" s="33"/>
       <c r="P3" s="33" t="s">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="Q3" s="33"/>
       <c r="R3" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S3" s="33" t="s">
         <v>70</v>
@@ -1287,7 +1287,7 @@
         <v>71</v>
       </c>
       <c r="AF3" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AG3" s="33"/>
       <c r="AH3" s="33" t="s">
@@ -1309,6 +1309,7 @@
         <v>73</v>
       </c>
     </row>
+    <row r="10" spans="1:39" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1364,10 +1365,10 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>837583</v>
+        <v>940116</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="38">
         <v>142435</v>
@@ -1399,8 +1400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,7 +1437,7 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>837583</v>
+        <v>940116</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
@@ -1445,10 +1446,10 @@
         <v>76</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F2" s="41"/>
     </row>
@@ -1510,14 +1511,14 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>837583</v>
+        <v>940116</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">
         <v>7850076</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>77</v>

--- a/TestData/Litigation_Case_Upload_Format.xlsx
+++ b/TestData/Litigation_Case_Upload_Format.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>Type of Case
 (Defendant / Plaintiff)</t>
@@ -259,38 +259,41 @@
     <t>2023-2024</t>
   </si>
   <si>
-    <t>Hearingof 26-Feb-2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">		</t>
   </si>
   <si>
-    <t>12-feb-2023</t>
-  </si>
-  <si>
-    <t>18-feb-2023</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Others #Delhi Value Added Tax Act, 2004 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Debit card</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12-apr-2024</t>
+  </si>
+  <si>
+    <t>Order date 23aug23</t>
+  </si>
+  <si>
+    <t>18-feb-2024</t>
+  </si>
+  <si>
+    <t>12-feb-2024</t>
+  </si>
+  <si>
+    <t>Hearingof 26-Feb-2024</t>
   </si>
   <si>
     <t xml:space="preserve"> 
 Deepali Dev</t>
   </si>
   <si>
-    <t xml:space="preserve">  Debit card</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12-apr-2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BOMBAY HIGH COURT.</t>
-  </si>
-  <si>
-    <t>Order date 23aug23</t>
-  </si>
-  <si>
-    <t>ABC Mall, Thane</t>
+    <t>Gauhati High Court.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gauhati High Court.</t>
+  </si>
+  <si>
+    <t>Order date 20april2024</t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -307,13 +310,6 @@
   <si>
     <t xml:space="preserve">	
 companyadmin@avantis.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- Avirat Gaikwad</t>
-  </si>
-  <si>
-    <t>Order date 18feb2024</t>
   </si>
 </sst>
 </file>
@@ -978,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1139,7 +1135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>34</v>
       </c>
@@ -1147,7 +1143,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="33">
-        <v>940116</v>
+        <v>9125234</v>
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="33" t="s">
@@ -1163,18 +1159,18 @@
         <v>35</v>
       </c>
       <c r="I2" s="34" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="J2" s="33"/>
       <c r="K2" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" s="33"/>
       <c r="M2" s="33" t="s">
         <v>67</v>
       </c>
       <c r="N2" s="34" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="O2" s="33"/>
       <c r="P2" s="33" t="s">
@@ -1182,7 +1178,7 @@
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S2" s="33" t="s">
         <v>70</v>
@@ -1202,7 +1198,7 @@
         <v>71</v>
       </c>
       <c r="AF2" s="34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG2" s="33"/>
       <c r="AH2" s="33" t="s">
@@ -1232,14 +1228,14 @@
         <v>66</v>
       </c>
       <c r="C3" s="33">
-        <v>1815724</v>
+        <v>372521</v>
       </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G3" s="33" t="s">
         <v>69</v>
@@ -1248,18 +1244,18 @@
         <v>35</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J3" s="33"/>
       <c r="K3" s="33" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L3" s="33"/>
       <c r="M3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="N3" s="34" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="O3" s="33"/>
       <c r="P3" s="33" t="s">
@@ -1267,7 +1263,7 @@
       </c>
       <c r="Q3" s="33"/>
       <c r="R3" s="34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S3" s="33" t="s">
         <v>70</v>
@@ -1287,7 +1283,7 @@
         <v>71</v>
       </c>
       <c r="AF3" s="34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG3" s="33"/>
       <c r="AH3" s="33" t="s">
@@ -1365,10 +1361,10 @@
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
-        <v>940116</v>
+        <v>9125234</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="38">
         <v>142435</v>
@@ -1376,10 +1372,10 @@
       <c r="D2" s="22"/>
       <c r="E2" s="23"/>
       <c r="F2" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="39" t="s">
         <v>74</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>75</v>
       </c>
       <c r="H2" s="24"/>
     </row>
@@ -1400,7 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1437,19 +1433,19 @@
     </row>
     <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>940116</v>
+        <v>9125234</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F2" s="41"/>
     </row>
@@ -1464,7 +1460,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,17 +1507,17 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
-        <v>940116</v>
+        <v>10150164</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="16">
-        <v>7850076</v>
+        <v>9125234</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F2" s="42">
         <v>457657</v>
